--- a/data/trans_orig/P36B10-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>41563</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28656</v>
+        <v>29198</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55099</v>
+        <v>55083</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07146469998547833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04927229791692892</v>
+        <v>0.05020334463536685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.094738053735111</v>
+        <v>0.09471121350244568</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -764,19 +764,19 @@
         <v>83990</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68131</v>
+        <v>66532</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>102037</v>
+        <v>103960</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09146500771913958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07419474520720314</v>
+        <v>0.07245301845688086</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1111176069327548</v>
+        <v>0.113212329766021</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -785,19 +785,19 @@
         <v>125554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104583</v>
+        <v>103885</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>149121</v>
+        <v>147096</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08370963505102258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06972786699655292</v>
+        <v>0.06926291871541317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09942255604110083</v>
+        <v>0.09807241221029862</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>74879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57612</v>
+        <v>60652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91265</v>
+        <v>93118</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1287471492445924</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.099058335417887</v>
+        <v>0.104285052507195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1569213972349615</v>
+        <v>0.1601089203108972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -835,19 +835,19 @@
         <v>178725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>154323</v>
+        <v>156861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203063</v>
+        <v>203494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1946307962779722</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1680574685610405</v>
+        <v>0.1708209940124271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.221134458419227</v>
+        <v>0.2216042466900204</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>249</v>
@@ -856,19 +856,19 @@
         <v>253604</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>224826</v>
+        <v>227330</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>282872</v>
+        <v>286843</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1690835775910022</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1498965954778628</v>
+        <v>0.1515666263589985</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1885975571543035</v>
+        <v>0.1912450811464458</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>219126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>195259</v>
+        <v>197119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>242768</v>
+        <v>244150</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3767687911227882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.335730054178619</v>
+        <v>0.3389296282153074</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4174175053775481</v>
+        <v>0.419795376787836</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>380</v>
@@ -906,19 +906,19 @@
         <v>396019</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>368901</v>
+        <v>367084</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>427329</v>
+        <v>428935</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4312633054923303</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4017316120999168</v>
+        <v>0.3997529954783555</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4653591495011651</v>
+        <v>0.4671088274555893</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>596</v>
@@ -927,19 +927,19 @@
         <v>615146</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>576286</v>
+        <v>580669</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>655261</v>
+        <v>654676</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4101323672621868</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.384223910489862</v>
+        <v>0.3871460701250339</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4368781805987614</v>
+        <v>0.4364884090698155</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>151330</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131628</v>
+        <v>130585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>174187</v>
+        <v>173156</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2601993048310891</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2263225187975347</v>
+        <v>0.2245287316658034</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2994992670861857</v>
+        <v>0.2977258204840192</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>176</v>
@@ -977,19 +977,19 @@
         <v>185261</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>160501</v>
+        <v>160680</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>209650</v>
+        <v>211019</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2017488565559412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1747850575739751</v>
+        <v>0.1749793876700948</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2283079651767805</v>
+        <v>0.2297983382902272</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>323</v>
@@ -998,19 +998,19 @@
         <v>336592</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>305487</v>
+        <v>304479</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>370218</v>
+        <v>367791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2244137582678953</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2036755393791642</v>
+        <v>0.2030036112273897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2468332522277442</v>
+        <v>0.2452152107359586</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>94695</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>77135</v>
+        <v>77341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>113151</v>
+        <v>113773</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1628200548160521</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1326261892520747</v>
+        <v>0.1329810035924258</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1945534584001115</v>
+        <v>0.1956234952018929</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -1048,19 +1048,19 @@
         <v>74281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58944</v>
+        <v>60100</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92908</v>
+        <v>92107</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08089203395461671</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06419022914103985</v>
+        <v>0.06544819057029976</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1011760450787123</v>
+        <v>0.1003044301389961</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>165</v>
@@ -1069,19 +1069,19 @@
         <v>168976</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>145203</v>
+        <v>144444</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>194863</v>
+        <v>194540</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1126606618278931</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09681018935435087</v>
+        <v>0.09630429298445083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1299195107743309</v>
+        <v>0.1297045273593042</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>51397</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37461</v>
+        <v>38483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69053</v>
+        <v>69815</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04779519346368887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03483610202859762</v>
+        <v>0.03578655082104933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06421370568640129</v>
+        <v>0.06492277948976997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -1194,19 +1194,19 @@
         <v>84445</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67850</v>
+        <v>67952</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103306</v>
+        <v>103201</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0798505804701841</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06415870900924298</v>
+        <v>0.06425453477956518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09768563467321884</v>
+        <v>0.09758602963296412</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -1215,19 +1215,19 @@
         <v>135842</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115111</v>
+        <v>114102</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162479</v>
+        <v>158516</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06368896995179775</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.053969122899788</v>
+        <v>0.05349640150113529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07617762043440202</v>
+        <v>0.07431940034682283</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>113968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94602</v>
+        <v>96212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135836</v>
+        <v>135626</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1059811678735104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08797211420363642</v>
+        <v>0.08946986618847459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1263168284765158</v>
+        <v>0.1261215074806138</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>187</v>
@@ -1265,19 +1265,19 @@
         <v>194501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>168878</v>
+        <v>172131</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>221683</v>
+        <v>219707</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1839182182070584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1596900259985383</v>
+        <v>0.1627658827676547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2096214612488603</v>
+        <v>0.2077536121474615</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>301</v>
@@ -1286,19 +1286,19 @@
         <v>308468</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>276585</v>
+        <v>277955</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>344422</v>
+        <v>340771</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1446240973097674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1296757393226655</v>
+        <v>0.1303179322063257</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1614809958704481</v>
+        <v>0.159768861168057</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>335885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>306785</v>
+        <v>305193</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>367084</v>
+        <v>367152</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3123472961110298</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.285286147866581</v>
+        <v>0.2838053308538287</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3413592810751504</v>
+        <v>0.341422974953026</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>416</v>
@@ -1336,19 +1336,19 @@
         <v>427792</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>396994</v>
+        <v>393510</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>459137</v>
+        <v>456269</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4045170531744625</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3753950041607672</v>
+        <v>0.3721002366591398</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4341562865293827</v>
+        <v>0.4314446467446657</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>744</v>
@@ -1357,19 +1357,19 @@
         <v>763678</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>720324</v>
+        <v>717616</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>808625</v>
+        <v>804520</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3580471192774967</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3377209754679323</v>
+        <v>0.3364511824307199</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3791203519842033</v>
+        <v>0.3771958276741891</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>356386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>326250</v>
+        <v>324117</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>389307</v>
+        <v>385805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3314113945688928</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3033875124696581</v>
+        <v>0.3014036587117243</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3620249515089407</v>
+        <v>0.3587681679972856</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>243</v>
@@ -1407,19 +1407,19 @@
         <v>247868</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>220371</v>
+        <v>223364</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>271551</v>
+        <v>275782</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2343823042979486</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2083811455239387</v>
+        <v>0.2112110081904436</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2567770326689799</v>
+        <v>0.2607775046638849</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>590</v>
@@ -1428,19 +1428,19 @@
         <v>604254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>558314</v>
+        <v>565634</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>647338</v>
+        <v>649047</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2833022055175035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2617633307849241</v>
+        <v>0.2651952427991486</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3035016841789443</v>
+        <v>0.3043028099429206</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>217723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>191692</v>
+        <v>192374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>242366</v>
+        <v>245911</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2024649479828781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1782590162469316</v>
+        <v>0.1788929399586132</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2253811923323293</v>
+        <v>0.2286777099008933</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -1478,19 +1478,19 @@
         <v>102932</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>86353</v>
+        <v>85131</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123107</v>
+        <v>121891</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09733184385034639</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0816547270775143</v>
+        <v>0.08049910120066069</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1164087286959546</v>
+        <v>0.1152591488983311</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>320</v>
@@ -1499,19 +1499,19 @@
         <v>320655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290225</v>
+        <v>287915</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>354908</v>
+        <v>352702</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1503376079434346</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1360708295211343</v>
+        <v>0.1349876132383812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1663972141212166</v>
+        <v>0.1653627333134659</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>57085</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42797</v>
+        <v>43350</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73658</v>
+        <v>75372</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0510105225577371</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03824246605633872</v>
+        <v>0.03873654108603863</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06581923103829906</v>
+        <v>0.06735161867576371</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -1624,19 +1624,19 @@
         <v>63301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49015</v>
+        <v>49117</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>80035</v>
+        <v>79836</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06392443111549077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04949790580978809</v>
+        <v>0.04960059286302741</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08082358542964925</v>
+        <v>0.08062293333054736</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -1645,19 +1645,19 @@
         <v>120386</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100675</v>
+        <v>102189</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142374</v>
+        <v>145535</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05707306347197139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04772834215029875</v>
+        <v>0.04844635475208468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06749739000725598</v>
+        <v>0.0689957196792169</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>129557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107859</v>
+        <v>110901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150865</v>
+        <v>153031</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1157699042005383</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09638107673657882</v>
+        <v>0.09909953674376534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1348102596993757</v>
+        <v>0.1367463172405564</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -1695,19 +1695,19 @@
         <v>144119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>122415</v>
+        <v>122623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166956</v>
+        <v>167234</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1455391446741817</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1236210091420526</v>
+        <v>0.1238312171242117</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1686011058803342</v>
+        <v>0.168881359681009</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>264</v>
@@ -1716,19 +1716,19 @@
         <v>273676</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>244355</v>
+        <v>245068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>308027</v>
+        <v>305542</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1297453197418526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1158445831854028</v>
+        <v>0.1161828771115576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1460304288341584</v>
+        <v>0.1448526539546209</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>302701</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>274143</v>
+        <v>274646</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>332383</v>
+        <v>331792</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2704894044635687</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2449697239328224</v>
+        <v>0.2454190852827542</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2970124039754194</v>
+        <v>0.2964840926148813</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>392</v>
@@ -1766,19 +1766,19 @@
         <v>401942</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>370446</v>
+        <v>369162</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>432679</v>
+        <v>431337</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4059021699718263</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3740965319529879</v>
+        <v>0.3727998266899136</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4369419863741581</v>
+        <v>0.4355865540606071</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>688</v>
@@ -1787,19 +1787,19 @@
         <v>704643</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>663658</v>
+        <v>664769</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>750429</v>
+        <v>749763</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3340600444082445</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3146296261959396</v>
+        <v>0.3151562465890621</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3557663921369954</v>
+        <v>0.3554506997530275</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>341845</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>312452</v>
+        <v>311134</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>372051</v>
+        <v>373005</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3054670857524621</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2792024261650977</v>
+        <v>0.2780241774865417</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3324594966808753</v>
+        <v>0.333311621948044</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>278</v>
@@ -1837,19 +1837,19 @@
         <v>276352</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>248876</v>
+        <v>249158</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>303985</v>
+        <v>304650</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2790745416540733</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2513279880913933</v>
+        <v>0.2516128439065442</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3069801939042643</v>
+        <v>0.3076519390140866</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>613</v>
@@ -1858,19 +1858,19 @@
         <v>618196</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>574602</v>
+        <v>578590</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>660020</v>
+        <v>662432</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2930768881827925</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2724096356874437</v>
+        <v>0.274300274604558</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3129047485739696</v>
+        <v>0.3140482062814938</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>287900</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261073</v>
+        <v>261603</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>318124</v>
+        <v>318223</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2572630830256938</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2332904662051336</v>
+        <v>0.2337640174642557</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2842711599691931</v>
+        <v>0.2843588477343084</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>108</v>
@@ -1908,19 +1908,19 @@
         <v>104530</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87320</v>
+        <v>87513</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>125199</v>
+        <v>124207</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.105559712584428</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08817990454042858</v>
+        <v>0.08837512457670466</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1264329195021627</v>
+        <v>0.1254312340575365</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>398</v>
@@ -1929,19 +1929,19 @@
         <v>392430</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>357498</v>
+        <v>355974</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>430358</v>
+        <v>429293</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1860446841951391</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1694842839639634</v>
+        <v>0.1687617167710333</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2040257630382069</v>
+        <v>0.2035209832713672</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>18062</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10417</v>
+        <v>11127</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28057</v>
+        <v>30003</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04038854407015473</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02329390931852773</v>
+        <v>0.02488234335640325</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06274005526968333</v>
+        <v>0.0670900747210484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2054,19 +2054,19 @@
         <v>30781</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21201</v>
+        <v>21468</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42354</v>
+        <v>43258</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09048497591860094</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06232322194290044</v>
+        <v>0.06310773769764312</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1245073589627125</v>
+        <v>0.1271627346050934</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2075,19 +2075,19 @@
         <v>48843</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36652</v>
+        <v>36312</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64261</v>
+        <v>62104</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06203210863259789</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04654964628651843</v>
+        <v>0.04611836376694486</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08161421930272374</v>
+        <v>0.07887465760619602</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>54655</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>42049</v>
+        <v>41310</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>70687</v>
+        <v>71793</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1222160219205922</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09402836702939744</v>
+        <v>0.09237478168311078</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1580646712419392</v>
+        <v>0.1605395623840967</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>41</v>
@@ -2125,19 +2125,19 @@
         <v>43427</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31588</v>
+        <v>31942</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>57159</v>
+        <v>55928</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1276610774297514</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09285752935821333</v>
+        <v>0.09389815284214725</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1680282984325139</v>
+        <v>0.1644100918136513</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>92</v>
@@ -2146,19 +2146,19 @@
         <v>98082</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>78309</v>
+        <v>80778</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>117379</v>
+        <v>119999</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1245684930669425</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09945588547746724</v>
+        <v>0.102591228264137</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1490761643714039</v>
+        <v>0.1524040011052115</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>149909</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>131675</v>
+        <v>129260</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>170005</v>
+        <v>169336</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3352175663071137</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2944437018177047</v>
+        <v>0.2890419735167635</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3801549130434363</v>
+        <v>0.3786582474205478</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>141</v>
@@ -2196,19 +2196,19 @@
         <v>143209</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>126322</v>
+        <v>122949</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>161330</v>
+        <v>162255</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4209848048220456</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3713444850300558</v>
+        <v>0.3614272970993795</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4742548123262212</v>
+        <v>0.4769740955737713</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>290</v>
@@ -2217,19 +2217,19 @@
         <v>293118</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>266937</v>
+        <v>266184</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>321823</v>
+        <v>320073</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3722722765059592</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.33902080925419</v>
+        <v>0.3380650242364121</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4087281844854163</v>
+        <v>0.4065058584646535</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>141808</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>123895</v>
+        <v>122518</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>160618</v>
+        <v>162114</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3171022968680282</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2770454233095739</v>
+        <v>0.2739677148576649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.359162728281969</v>
+        <v>0.3625080160317584</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>87</v>
@@ -2267,19 +2267,19 @@
         <v>86379</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>71942</v>
+        <v>70069</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>104051</v>
+        <v>103174</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2539253048316343</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2114858325699308</v>
+        <v>0.2059795234717199</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3058751240049835</v>
+        <v>0.3032968740902744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>224</v>
@@ -2288,19 +2288,19 @@
         <v>228187</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>204540</v>
+        <v>204878</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>253671</v>
+        <v>254841</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2898074326322421</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2597748167549709</v>
+        <v>0.2602031157587059</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3221730593158916</v>
+        <v>0.3236582190007797</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>82766</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67586</v>
+        <v>67129</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>99953</v>
+        <v>101407</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1850755708341111</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1511318186722273</v>
+        <v>0.1501094667161534</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2235081696699026</v>
+        <v>0.2267607031596989</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -2338,19 +2338,19 @@
         <v>36380</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26282</v>
+        <v>25951</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47966</v>
+        <v>48510</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1069438369979679</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0772607063704235</v>
+        <v>0.07628805338363155</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1410041971660829</v>
+        <v>0.1426034334075514</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>119</v>
@@ -2359,19 +2359,19 @@
         <v>119145</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>101259</v>
+        <v>98411</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>140312</v>
+        <v>139660</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1513196891622583</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1286025789274395</v>
+        <v>0.1249858076249066</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.178201515800318</v>
+        <v>0.1773738451479724</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>168107</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>143420</v>
+        <v>143461</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>195814</v>
+        <v>198636</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05215479078538492</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04449557098498683</v>
+        <v>0.04450819175251048</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06075057236725596</v>
+        <v>0.06162613738315737</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>253</v>
@@ -2484,19 +2484,19 @@
         <v>262517</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>233560</v>
+        <v>231957</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>296894</v>
+        <v>293538</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07940054619268379</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07064233417879526</v>
+        <v>0.07015736534040544</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08979819351711864</v>
+        <v>0.08878318758452308</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>410</v>
@@ -2505,19 +2505,19 @@
         <v>430624</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>389102</v>
+        <v>390580</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>472218</v>
+        <v>476376</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0659508233530824</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05959163816863893</v>
+        <v>0.05981792042247228</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07232091171691117</v>
+        <v>0.07295786572022231</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>373058</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>339581</v>
+        <v>338939</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>411075</v>
+        <v>411356</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1157400538873909</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.105353868911151</v>
+        <v>0.105154614080168</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1275346105801137</v>
+        <v>0.1276217350947317</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>540</v>
@@ -2555,19 +2555,19 @@
         <v>560772</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>517624</v>
+        <v>520233</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>608525</v>
+        <v>607487</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.169610450444093</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1565600297981482</v>
+        <v>0.1573491123263639</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1840537379862011</v>
+        <v>0.1837397329080434</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>906</v>
@@ -2576,19 +2576,19 @@
         <v>933830</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>880963</v>
+        <v>877784</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>987661</v>
+        <v>991159</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1430176145283392</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1349209559007305</v>
+        <v>0.1344341321639479</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.15126200575139</v>
+        <v>0.1517976346988372</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1007623</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>954165</v>
+        <v>949826</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1059132</v>
+        <v>1060081</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3126116493792215</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2960266787555498</v>
+        <v>0.2946805228251324</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3285923664631118</v>
+        <v>0.3288866830857574</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1329</v>
@@ -2626,19 +2626,19 @@
         <v>1368962</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1314289</v>
+        <v>1312019</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1426136</v>
+        <v>1427486</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4140547976365805</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3975184969698206</v>
+        <v>0.3968319216614126</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4313476165204647</v>
+        <v>0.4317558922938601</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2318</v>
@@ -2647,19 +2647,19 @@
         <v>2376584</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2303088</v>
+        <v>2296556</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2458562</v>
+        <v>2452138</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3639779248304565</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3527218627619628</v>
+        <v>0.3517214139523372</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3765328578680661</v>
+        <v>0.3755491618912004</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>991369</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>941981</v>
+        <v>932737</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1047195</v>
+        <v>1042501</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3075690794474445</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2922463955331726</v>
+        <v>0.289378480432326</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3248888819200075</v>
+        <v>0.3234326255320558</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>784</v>
@@ -2697,19 +2697,19 @@
         <v>795860</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>748815</v>
+        <v>746154</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>843348</v>
+        <v>845273</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2407150911090196</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2264857930000312</v>
+        <v>0.2256810482764973</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2550782438994601</v>
+        <v>0.2556604456041051</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1750</v>
@@ -2718,19 +2718,19 @@
         <v>1787229</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1718995</v>
+        <v>1709702</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1863802</v>
+        <v>1860515</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2737172083354291</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2632669664156567</v>
+        <v>0.261843782039236</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2854444467393269</v>
+        <v>0.2849410357778616</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>683084</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>633615</v>
+        <v>640491</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>726342</v>
+        <v>732636</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2119244265005582</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1965768930030168</v>
+        <v>0.1987103591080179</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2253453845109638</v>
+        <v>0.2272978009384981</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>319</v>
@@ -2768,19 +2768,19 @@
         <v>318123</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>287672</v>
+        <v>288325</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>353908</v>
+        <v>352154</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.096219114617623</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08700909903945682</v>
+        <v>0.08720660092002558</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1070425817629532</v>
+        <v>0.1065121469303901</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1002</v>
@@ -2789,19 +2789,19 @@
         <v>1001206</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>949732</v>
+        <v>937677</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1065172</v>
+        <v>1061007</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1533364289526927</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1454531073402204</v>
+        <v>0.1436067969333491</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1631329265083046</v>
+        <v>0.162494946071628</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>91161</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72152</v>
+        <v>73200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109646</v>
+        <v>112708</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08798088827635443</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06963531619808344</v>
+        <v>0.07064685219367617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1058209550092396</v>
+        <v>0.1087761517474805</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -3154,19 +3154,19 @@
         <v>148389</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>124482</v>
+        <v>126203</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171970</v>
+        <v>172368</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1337272842636494</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1121820840647522</v>
+        <v>0.1137334194321222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1549780331425935</v>
+        <v>0.1553366624687495</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>218</v>
@@ -3175,19 +3175,19 @@
         <v>239550</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>209386</v>
+        <v>210804</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>271527</v>
+        <v>271782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1116375000470151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09758020052195499</v>
+        <v>0.09824112417640816</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1265399654382812</v>
+        <v>0.1266584838063491</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>177107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>151962</v>
+        <v>152193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>203352</v>
+        <v>202429</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1709284020979442</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.146661113196925</v>
+        <v>0.1468834028704369</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1962581452903092</v>
+        <v>0.195367612075285</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>246</v>
@@ -3225,19 +3225,19 @@
         <v>265119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>236951</v>
+        <v>237898</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297117</v>
+        <v>297960</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2389238191429218</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2135390550705819</v>
+        <v>0.2143923084352423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2677604016423361</v>
+        <v>0.2685198398293015</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>408</v>
@@ -3246,19 +3246,19 @@
         <v>442226</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>402515</v>
+        <v>406422</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>481864</v>
+        <v>486973</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2060905421638837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1875842668172931</v>
+        <v>0.1894048286432646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2245633428971575</v>
+        <v>0.2269442587787685</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>325036</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>295284</v>
+        <v>297222</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>355850</v>
+        <v>357743</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3136972555882284</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2849832666667343</v>
+        <v>0.2868535295200956</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3434361204682693</v>
+        <v>0.3452630980671642</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>304</v>
@@ -3296,19 +3296,19 @@
         <v>332046</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>298056</v>
+        <v>300354</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>362570</v>
+        <v>365627</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2992376740482894</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.268606194639979</v>
+        <v>0.2706767772981443</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3267460859941462</v>
+        <v>0.329500901171764</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>614</v>
@@ -3317,19 +3317,19 @@
         <v>657081</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>609186</v>
+        <v>611871</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>699137</v>
+        <v>700880</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3062198423521879</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2838991755918857</v>
+        <v>0.2851506131370616</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3258190511104153</v>
+        <v>0.3266311195638991</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>267410</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>239373</v>
+        <v>238626</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>299511</v>
+        <v>297177</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.258081980658013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2310222921332397</v>
+        <v>0.2303017676757164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2890630423246879</v>
+        <v>0.2868102507054173</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>207</v>
@@ -3367,19 +3367,19 @@
         <v>222745</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194959</v>
+        <v>197052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>249266</v>
+        <v>249816</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2007365732948758</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1756962825842099</v>
+        <v>0.1775816529927065</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2246365905867057</v>
+        <v>0.2251325893985567</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>457</v>
@@ -3388,19 +3388,19 @@
         <v>490155</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>453641</v>
+        <v>451384</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>532521</v>
+        <v>533463</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.228427228419238</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.211410653024253</v>
+        <v>0.2103587153512759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2481707256697803</v>
+        <v>0.2486098497622371</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>175431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>148324</v>
+        <v>150533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>199164</v>
+        <v>201624</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.16931147337946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1431503129590531</v>
+        <v>0.1452822664910902</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1922167970321106</v>
+        <v>0.194590829365492</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>131</v>
@@ -3438,19 +3438,19 @@
         <v>141340</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>120749</v>
+        <v>119904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>166309</v>
+        <v>165800</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1273746492502636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1088179001200194</v>
+        <v>0.1080563855227024</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1498771133996168</v>
+        <v>0.1494179201802229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>296</v>
@@ -3459,19 +3459,19 @@
         <v>316771</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>284224</v>
+        <v>280498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>353533</v>
+        <v>350795</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1476248870176752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.132456953154153</v>
+        <v>0.1307204120490629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1647570882045922</v>
+        <v>0.1634810085833407</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>57846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45579</v>
+        <v>43835</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75053</v>
+        <v>73214</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05943515794389231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0468309876781196</v>
+        <v>0.04503964805566144</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07711465878572692</v>
+        <v>0.07522571162354269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -3584,19 +3584,19 @@
         <v>105883</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85673</v>
+        <v>86534</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127727</v>
+        <v>126629</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09704569012390467</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07852217303404699</v>
+        <v>0.07931116505192572</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1170663501637391</v>
+        <v>0.116060002620739</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -3605,19 +3605,19 @@
         <v>163729</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138841</v>
+        <v>138993</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>191601</v>
+        <v>187864</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07931358960541782</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06725721375504522</v>
+        <v>0.067330883116737</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09281543853459345</v>
+        <v>0.09100486908010422</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>183856</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158312</v>
+        <v>160915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>209857</v>
+        <v>213634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1889073148914134</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1626620211843984</v>
+        <v>0.1653358093523003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2156225905933986</v>
+        <v>0.219503824514413</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>289</v>
@@ -3655,19 +3655,19 @@
         <v>304802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>276182</v>
+        <v>275523</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>335594</v>
+        <v>334204</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2793623211279401</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2531310824930941</v>
+        <v>0.2525262345666251</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.307583490085742</v>
+        <v>0.3063099333299699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>459</v>
@@ -3676,19 +3676,19 @@
         <v>488658</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>446069</v>
+        <v>451760</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>527252</v>
+        <v>529478</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2367158290413737</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2160845786317384</v>
+        <v>0.2188414708205239</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.255411405700568</v>
+        <v>0.2564897827805371</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>299903</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>271156</v>
+        <v>270139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>330681</v>
+        <v>328263</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3081426523231344</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2786061059728662</v>
+        <v>0.2775609287539174</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3397668837519964</v>
+        <v>0.337282419769514</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>364</v>
@@ -3726,19 +3726,19 @@
         <v>399315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>368304</v>
+        <v>366366</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>433673</v>
+        <v>434623</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.365986606794417</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3375636687597932</v>
+        <v>0.3357870597092462</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3974765328253879</v>
+        <v>0.3983478399776562</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>652</v>
@@ -3747,19 +3747,19 @@
         <v>699218</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>653956</v>
+        <v>656357</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>743779</v>
+        <v>743751</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3387151284180315</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3167892422112523</v>
+        <v>0.3179525768001791</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3603012535360667</v>
+        <v>0.3602879284117144</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>281214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252111</v>
+        <v>253005</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>309828</v>
+        <v>314783</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2889410205184078</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2590382943006279</v>
+        <v>0.2599562232257512</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3183403953788637</v>
+        <v>0.3234315490121506</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>185</v>
@@ -3797,19 +3797,19 @@
         <v>196020</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>170643</v>
+        <v>169823</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>222915</v>
+        <v>222539</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1796594595365548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1564003332380049</v>
+        <v>0.155648625065583</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2043094623760353</v>
+        <v>0.2039648668844322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>449</v>
@@ -3818,19 +3818,19 @@
         <v>477235</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>439307</v>
+        <v>436457</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>520323</v>
+        <v>517845</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2311820387670923</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2128092453467165</v>
+        <v>0.2114284282919284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2520551063433126</v>
+        <v>0.2508545037377483</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>150440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128447</v>
+        <v>128567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174701</v>
+        <v>175001</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1545738543231521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1319759287611537</v>
+        <v>0.1320990020496547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1795005839486253</v>
+        <v>0.1798097935747612</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -3868,19 +3868,19 @@
         <v>85044</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>68440</v>
+        <v>68484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>106766</v>
+        <v>104082</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0779459224171835</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06272766109523371</v>
+        <v>0.06276784488186168</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09785496631693308</v>
+        <v>0.09539447003492185</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>224</v>
@@ -3889,19 +3889,19 @@
         <v>235484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>209541</v>
+        <v>209274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>271234</v>
+        <v>268605</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1140734141680847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1015056275118902</v>
+        <v>0.1013764943833541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.131391163083722</v>
+        <v>0.1301178062429224</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>49050</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36277</v>
+        <v>36372</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65118</v>
+        <v>65134</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0556186307195532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04113486462581172</v>
+        <v>0.04124254846320949</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07383810410356414</v>
+        <v>0.07385612888426978</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -4014,19 +4014,19 @@
         <v>73240</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57315</v>
+        <v>57587</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91394</v>
+        <v>90333</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08411860393227032</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06582779052098718</v>
+        <v>0.06614056225875772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1049680401709385</v>
+        <v>0.1037499013712547</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>111</v>
@@ -4035,19 +4035,19 @@
         <v>122291</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101703</v>
+        <v>101568</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>147680</v>
+        <v>146115</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06977735062303328</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05803038184732249</v>
+        <v>0.05795322210353816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08426412239142433</v>
+        <v>0.08337123159632094</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>200409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>175169</v>
+        <v>176165</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>229004</v>
+        <v>227850</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2272452622271953</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1986251478085798</v>
+        <v>0.199754414710932</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2596695495528741</v>
+        <v>0.2583603739164147</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>241</v>
@@ -4085,19 +4085,19 @@
         <v>257914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>231346</v>
+        <v>231482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>285937</v>
+        <v>287337</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2962206629094763</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2657068206922</v>
+        <v>0.2658626091379127</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.328406075982194</v>
+        <v>0.3300136784361741</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>423</v>
@@ -4106,19 +4106,19 @@
         <v>458322</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>420196</v>
+        <v>422707</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>495040</v>
+        <v>498365</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2615120796449377</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2397578927713355</v>
+        <v>0.2411903573170319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2824623959452426</v>
+        <v>0.284359637583426</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>262209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>233619</v>
+        <v>234751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>289057</v>
+        <v>290784</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2973210863929705</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2649025095026848</v>
+        <v>0.2661864717113253</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3277642738016438</v>
+        <v>0.3297226939229966</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>263</v>
@@ -4156,19 +4156,19 @@
         <v>277649</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>246800</v>
+        <v>251073</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>304788</v>
+        <v>306570</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.318887223049468</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2834563547448486</v>
+        <v>0.2883634262733443</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3500574886685022</v>
+        <v>0.352103477151513</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>515</v>
@@ -4177,19 +4177,19 @@
         <v>539858</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>499219</v>
+        <v>502128</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>579953</v>
+        <v>577032</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3080350925445016</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2848471623311424</v>
+        <v>0.2865069749232487</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.330912944203662</v>
+        <v>0.329246141495275</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>260954</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>233429</v>
+        <v>233585</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>289469</v>
+        <v>290708</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2958982610596763</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2646868534167963</v>
+        <v>0.2648641731014611</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3282308691818509</v>
+        <v>0.3296362460610929</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>177</v>
@@ -4227,19 +4227,19 @@
         <v>187404</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>165219</v>
+        <v>166386</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>212021</v>
+        <v>215703</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2152388357304533</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1897584699964928</v>
+        <v>0.1910992203185029</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2435114563943363</v>
+        <v>0.247740579592434</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>422</v>
@@ -4248,19 +4248,19 @@
         <v>448359</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>409748</v>
+        <v>412619</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>488474</v>
+        <v>486863</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2558268475783982</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2337963132742159</v>
+        <v>0.2354343319991967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2787163884363789</v>
+        <v>0.2777972073599737</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>109283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91293</v>
+        <v>90815</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>131898</v>
+        <v>131833</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1239167596006047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1035173701699916</v>
+        <v>0.1029762660762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.149560580297728</v>
+        <v>0.1494860639923418</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -4298,19 +4298,19 @@
         <v>74473</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58817</v>
+        <v>58316</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92334</v>
+        <v>92463</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08553467437833211</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06755274501295351</v>
+        <v>0.0669777801372186</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1060480711282832</v>
+        <v>0.1061966942393575</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>173</v>
@@ -4319,19 +4319,19 @@
         <v>183756</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>157291</v>
+        <v>159970</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>211692</v>
+        <v>210911</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1048486296091292</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0897477720957713</v>
+        <v>0.09127647933938175</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.120788366639658</v>
+        <v>0.1203427942848734</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>38286</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26467</v>
+        <v>27518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51860</v>
+        <v>53869</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0767104036152453</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05303071625150493</v>
+        <v>0.05513637725434259</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1039079588250126</v>
+        <v>0.1079344755021919</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -4444,19 +4444,19 @@
         <v>66912</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52139</v>
+        <v>53236</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83757</v>
+        <v>85392</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1494973431113596</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1164890461943966</v>
+        <v>0.1189401419770384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.18713212133772</v>
+        <v>0.1907840826962862</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -4465,19 +4465,19 @@
         <v>105198</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>85917</v>
+        <v>85765</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129240</v>
+        <v>125611</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1111236298150718</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09075691170477133</v>
+        <v>0.09059578113227602</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1365198041431137</v>
+        <v>0.1326861008986776</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>134655</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>114589</v>
+        <v>114970</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>158835</v>
+        <v>156351</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2698002461506899</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2295938719120213</v>
+        <v>0.2303586041597615</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3182464047911481</v>
+        <v>0.3132707553936391</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>122</v>
@@ -4515,19 +4515,19 @@
         <v>132263</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>112199</v>
+        <v>114530</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>153133</v>
+        <v>154004</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2955045491185707</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2506764701959484</v>
+        <v>0.2558848920749824</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3421340726608044</v>
+        <v>0.3440788356485773</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>241</v>
@@ -4536,19 +4536,19 @@
         <v>266918</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>238880</v>
+        <v>238879</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>296706</v>
+        <v>299430</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2819530856362651</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.252335595603071</v>
+        <v>0.2523349821303361</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3134186227152829</v>
+        <v>0.3162960651456473</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>142257</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>121643</v>
+        <v>121181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>164554</v>
+        <v>165564</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2850318808528804</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2437272296831626</v>
+        <v>0.2428019924536879</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3297050893076584</v>
+        <v>0.3317306979033631</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>110</v>
@@ -4586,19 +4586,19 @@
         <v>123167</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>104050</v>
+        <v>104896</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>144648</v>
+        <v>143117</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.275181456193648</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2324704994794761</v>
+        <v>0.2343604305447652</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3231748151394129</v>
+        <v>0.3197546132238042</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>237</v>
@@ -4607,19 +4607,19 @@
         <v>265424</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>236605</v>
+        <v>236885</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>293305</v>
+        <v>295658</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2803746594569923</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2499325173224669</v>
+        <v>0.250227871889911</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3098258433866582</v>
+        <v>0.312311635684539</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>119209</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99711</v>
+        <v>102258</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>139337</v>
+        <v>140679</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2388506771197013</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1997840323926196</v>
+        <v>0.20488774560702</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2791804901476833</v>
+        <v>0.2818694692831547</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -4657,19 +4657,19 @@
         <v>86785</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69918</v>
+        <v>69834</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105763</v>
+        <v>105275</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1938961436276593</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1562122008714612</v>
+        <v>0.156023877394055</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2362986808559126</v>
+        <v>0.2352066873895871</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>195</v>
@@ -4678,19 +4678,19 @@
         <v>205993</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>181368</v>
+        <v>180854</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>234276</v>
+        <v>231713</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2175964446917544</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1915844734525231</v>
+        <v>0.191041591668602</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2474719192538159</v>
+        <v>0.2447653581658189</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>64686</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>51418</v>
+        <v>52155</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80515</v>
+        <v>80818</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.129606792261483</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1030224604997978</v>
+        <v>0.1045002034235891</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1613217936027493</v>
+        <v>0.161929565274685</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -4728,19 +4728,19 @@
         <v>38457</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26228</v>
+        <v>26834</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>53071</v>
+        <v>52564</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08592050794876251</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05859965201972553</v>
+        <v>0.05995281417011045</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1185721715056577</v>
+        <v>0.1174389403811875</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>99</v>
@@ -4749,19 +4749,19 @@
         <v>103142</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>83692</v>
+        <v>86104</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>125067</v>
+        <v>125008</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1089521803999163</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08840625650558206</v>
+        <v>0.09095407064987314</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1321122388755745</v>
+        <v>0.1320493003942253</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>236343</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>205865</v>
+        <v>207927</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>267817</v>
+        <v>269051</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06970935002939099</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06072003435305642</v>
+        <v>0.06132821206984114</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07899275769116132</v>
+        <v>0.07935657497730803</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>359</v>
@@ -4874,19 +4874,19 @@
         <v>394425</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>357461</v>
+        <v>357207</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>432572</v>
+        <v>435985</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1120854439541456</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1015811308537038</v>
+        <v>0.1015090727494735</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1229259069783104</v>
+        <v>0.1238956943093993</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>576</v>
@@ -4895,19 +4895,19 @@
         <v>630768</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>583898</v>
+        <v>581789</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>688987</v>
+        <v>685517</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09129164639019006</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08450808868460841</v>
+        <v>0.08420287949095991</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09971770886457154</v>
+        <v>0.09921549844000195</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>696027</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>643262</v>
+        <v>648063</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>746213</v>
+        <v>749638</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2052932150366213</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1897301227007005</v>
+        <v>0.1911463931683676</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.220095642897131</v>
+        <v>0.2211058858720901</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>898</v>
@@ -4945,19 +4945,19 @@
         <v>960098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>909779</v>
+        <v>908987</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1018158</v>
+        <v>1013966</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2728351483281053</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2585358950413172</v>
+        <v>0.2583107803987518</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2893344412927958</v>
+        <v>0.2881429893927787</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1531</v>
@@ -4966,19 +4966,19 @@
         <v>1656125</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1586533</v>
+        <v>1575768</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1735733</v>
+        <v>1721554</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2396925634915903</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2296204488522914</v>
+        <v>0.2280625117230709</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2512143856710078</v>
+        <v>0.2491622946574826</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>1029405</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>975577</v>
+        <v>974631</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1084633</v>
+        <v>1085246</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3036232323312339</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2877466531210377</v>
+        <v>0.2874676325941896</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3199128072667238</v>
+        <v>0.3200936014332155</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1041</v>
@@ -5016,19 +5016,19 @@
         <v>1132176</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1070883</v>
+        <v>1075618</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1188268</v>
+        <v>1191562</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3217354005605543</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3043173501971161</v>
+        <v>0.3056631178886082</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3376751285216115</v>
+        <v>0.338611306459436</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2018</v>
@@ -5037,19 +5037,19 @@
         <v>2161581</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2078593</v>
+        <v>2087074</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2234284</v>
+        <v>2237044</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3128478244598985</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3008367895505559</v>
+        <v>0.3020642720673805</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3233701578972092</v>
+        <v>0.323769611907423</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>928788</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>876875</v>
+        <v>875153</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>979476</v>
+        <v>986828</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2739461789560482</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.258634579420064</v>
+        <v>0.2581266539335704</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2888965299721265</v>
+        <v>0.2910651042767435</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>650</v>
@@ -5087,19 +5087,19 @@
         <v>692954</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>644741</v>
+        <v>645748</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>743835</v>
+        <v>746873</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1969197386994284</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1832189339760227</v>
+        <v>0.1835050889565072</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.211378904232474</v>
+        <v>0.2122421102011328</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1523</v>
@@ -5108,19 +5108,19 @@
         <v>1621742</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1553872</v>
+        <v>1555602</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1691463</v>
+        <v>1698354</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2347163371450588</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.224893429930993</v>
+        <v>0.2251437775109508</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2448070766047192</v>
+        <v>0.245804534160729</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>499840</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>458365</v>
+        <v>457487</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>540938</v>
+        <v>542531</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1474280236467056</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1351947751195678</v>
+        <v>0.1349359685114803</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1595498104555013</v>
+        <v>0.160019515638381</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>316</v>
@@ -5158,19 +5158,19 @@
         <v>339314</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>308360</v>
+        <v>306902</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>377594</v>
+        <v>372700</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09642426845776628</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08762798235029358</v>
+        <v>0.08721361638368412</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1073025757230566</v>
+        <v>0.1059117738939975</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>792</v>
@@ -5179,19 +5179,19 @@
         <v>839154</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>783859</v>
+        <v>785003</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>903765</v>
+        <v>897131</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1214516285132623</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1134487269813749</v>
+        <v>0.1136141999342143</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1308028700610906</v>
+        <v>0.1298426578750329</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>73937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58763</v>
+        <v>59170</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93595</v>
+        <v>93725</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06566556417215556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05218908537083043</v>
+        <v>0.05255110459184656</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08312457533491321</v>
+        <v>0.08323997987891817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -5544,19 +5544,19 @@
         <v>93513</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73908</v>
+        <v>76023</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112838</v>
+        <v>112803</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07442665202118919</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05882346151917064</v>
+        <v>0.06050678830477792</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08980809081443508</v>
+        <v>0.08977976635397314</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>153</v>
@@ -5565,19 +5565,19 @@
         <v>167449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144949</v>
+        <v>144264</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>194669</v>
+        <v>193990</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07028602648468764</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06084180008610621</v>
+        <v>0.06055397996442043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08171150121954859</v>
+        <v>0.08142646534474238</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>216369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>190355</v>
+        <v>190222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>242686</v>
+        <v>245856</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1921642497961829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1690604910945765</v>
+        <v>0.1689424728213509</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2155374330768294</v>
+        <v>0.2183524893473249</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>261</v>
@@ -5615,19 +5615,19 @@
         <v>274645</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246213</v>
+        <v>246022</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303083</v>
+        <v>306438</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2185900897325642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1959604397190183</v>
+        <v>0.1958085864350622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2412239410887591</v>
+        <v>0.2438940498187848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>469</v>
@@ -5636,19 +5636,19 @@
         <v>491014</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>454878</v>
+        <v>449571</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>530733</v>
+        <v>532309</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2061008293177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1909329649831523</v>
+        <v>0.1887052881254777</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.222772572408394</v>
+        <v>0.2234342652585483</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>429706</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>399039</v>
+        <v>396759</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>463597</v>
+        <v>462374</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3816360297611897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3543993418657214</v>
+        <v>0.3523744103867493</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.411735277725005</v>
+        <v>0.4106495850671804</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>481</v>
@@ -5686,19 +5686,19 @@
         <v>511101</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>473204</v>
+        <v>473052</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>545045</v>
+        <v>547559</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4067853632922373</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3766225923175763</v>
+        <v>0.3765020890010762</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4338008974459244</v>
+        <v>0.4358018087865123</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>887</v>
@@ -5707,19 +5707,19 @@
         <v>940807</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>891652</v>
+        <v>892730</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>988883</v>
+        <v>994638</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.394899399535335</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3742667908566772</v>
+        <v>0.3747193279168385</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4150788689401577</v>
+        <v>0.4174945740659618</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>281835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>257641</v>
+        <v>251428</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>311241</v>
+        <v>311082</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2503069032389976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2288189417298486</v>
+        <v>0.2233010286593631</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2764230537878798</v>
+        <v>0.2762823491362368</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>280</v>
@@ -5757,19 +5757,19 @@
         <v>296771</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>268694</v>
+        <v>265426</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>331013</v>
+        <v>329165</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2361995134512431</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2138537265343966</v>
+        <v>0.211252512771239</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2634529361079633</v>
+        <v>0.2619826213598445</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>547</v>
@@ -5778,19 +5778,19 @@
         <v>578605</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>537120</v>
+        <v>533692</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>621469</v>
+        <v>619454</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2428668839211101</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2254537525751195</v>
+        <v>0.2240148799335701</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2608586854070427</v>
+        <v>0.2600130977977809</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>124111</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104304</v>
+        <v>103864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144479</v>
+        <v>147188</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1102272530314742</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09263579506421096</v>
+        <v>0.09224535056642778</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.12831637128168</v>
+        <v>0.1307225521004123</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -5828,19 +5828,19 @@
         <v>80410</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>63842</v>
+        <v>63272</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100376</v>
+        <v>99511</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06399838150276625</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05081173769466429</v>
+        <v>0.0503581123009895</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07988889161179552</v>
+        <v>0.07920080141340033</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>193</v>
@@ -5849,19 +5849,19 @@
         <v>204521</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>178685</v>
+        <v>179907</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>234136</v>
+        <v>235678</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08584686074116715</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07500205118294806</v>
+        <v>0.07551502056518691</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09827743967176816</v>
+        <v>0.09892469423850506</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>50714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38705</v>
+        <v>37209</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66627</v>
+        <v>66052</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05605297585805418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04277981817416704</v>
+        <v>0.04112649992137059</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07364069712489148</v>
+        <v>0.07300546675000484</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -5974,19 +5974,19 @@
         <v>96107</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78148</v>
+        <v>78840</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117166</v>
+        <v>117966</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0960072608877645</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07806621321378546</v>
+        <v>0.07875787888587463</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1170441602217968</v>
+        <v>0.1178434761280894</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>138</v>
@@ -5995,19 +5995,19 @@
         <v>146822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126014</v>
+        <v>125779</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169236</v>
+        <v>174875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0770394209673182</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06612160093130823</v>
+        <v>0.06599792163066515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08880051096010423</v>
+        <v>0.09175967236229714</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>149148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125915</v>
+        <v>129074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172220</v>
+        <v>170813</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1648488747183064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1391705440417117</v>
+        <v>0.1426618739579737</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.190349287490813</v>
+        <v>0.188795094269137</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>200</v>
@@ -6045,19 +6045,19 @@
         <v>216233</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>190606</v>
+        <v>189929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242628</v>
+        <v>245629</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2160080531041602</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1904071291936862</v>
+        <v>0.189731341492358</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2423754093167779</v>
+        <v>0.2453729036018423</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>348</v>
@@ -6066,19 +6066,19 @@
         <v>365381</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>329548</v>
+        <v>331615</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>399678</v>
+        <v>400812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1917208181964939</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.172918878459134</v>
+        <v>0.1740034674853709</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2097169470455774</v>
+        <v>0.210311858511159</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>340433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>313384</v>
+        <v>311345</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>372271</v>
+        <v>370935</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3762705443151619</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3463736072806116</v>
+        <v>0.3441198585927582</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4114601803800648</v>
+        <v>0.4099837051212598</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>353</v>
@@ -6116,19 +6116,19 @@
         <v>370090</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>338985</v>
+        <v>338827</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>400787</v>
+        <v>405692</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3697047950823446</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3386325218324215</v>
+        <v>0.3384742750361227</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4003696651056307</v>
+        <v>0.4052693586066842</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>680</v>
@@ -6137,19 +6137,19 @@
         <v>710523</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>670714</v>
+        <v>665873</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>753661</v>
+        <v>751682</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3728218094479693</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3519332085204155</v>
+        <v>0.349393230341627</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3954568946556773</v>
+        <v>0.3944187017692178</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>252343</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>224607</v>
+        <v>227879</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>281223</v>
+        <v>283154</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2789067944128129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2482510793192937</v>
+        <v>0.2518679785092513</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3108278375267857</v>
+        <v>0.3129621647242437</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>226</v>
@@ -6187,19 +6187,19 @@
         <v>237291</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>209791</v>
+        <v>211847</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>263517</v>
+        <v>269403</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2370441712173838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2095725612932865</v>
+        <v>0.2116262130823665</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.263242382159271</v>
+        <v>0.269122875301757</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>469</v>
@@ -6208,19 +6208,19 @@
         <v>489634</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>451256</v>
+        <v>450153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>525919</v>
+        <v>528423</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2569179728591953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2367805173795615</v>
+        <v>0.2362019239311549</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2759575489405417</v>
+        <v>0.2772712731779278</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>112118</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91860</v>
+        <v>90998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132202</v>
+        <v>131718</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1239208106956646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1015301346279684</v>
+        <v>0.1005769041554952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1461189686319211</v>
+        <v>0.1455838359027267</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -6258,19 +6258,19 @@
         <v>81320</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65546</v>
+        <v>65649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>100996</v>
+        <v>99146</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08123571970834687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06547777124736513</v>
+        <v>0.06558081136784194</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1008909256853049</v>
+        <v>0.09904294700589548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>189</v>
@@ -6279,19 +6279,19 @@
         <v>193438</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>169780</v>
+        <v>168479</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222975</v>
+        <v>220202</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1014999785290233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08908601272111331</v>
+        <v>0.0884035048636892</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1169982512938793</v>
+        <v>0.1155431775597934</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>45771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34436</v>
+        <v>33139</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61707</v>
+        <v>60320</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05562199100796354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04184766090735368</v>
+        <v>0.04027149145442666</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07498763803220201</v>
+        <v>0.07330262024554815</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -6404,19 +6404,19 @@
         <v>67805</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53333</v>
+        <v>53091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85610</v>
+        <v>85433</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08793799280368504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06916908060335955</v>
+        <v>0.06885473263326085</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1110287960941308</v>
+        <v>0.1107994580888963</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -6425,19 +6425,19 @@
         <v>113576</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92771</v>
+        <v>94374</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137017</v>
+        <v>134884</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07125452823147417</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05820172001331311</v>
+        <v>0.05920735374179284</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0859604872587377</v>
+        <v>0.08462253541889944</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>104073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86214</v>
+        <v>86387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>125677</v>
+        <v>123104</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1264717772792111</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1047696089202085</v>
+        <v>0.1049795602121391</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1527248338828576</v>
+        <v>0.1495985210492267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -6475,19 +6475,19 @@
         <v>173323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>149005</v>
+        <v>151253</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197509</v>
+        <v>199631</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2247862643290715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1932478411949692</v>
+        <v>0.1961629111133975</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2561526190542699</v>
+        <v>0.2589043392542053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>263</v>
@@ -6496,19 +6496,19 @@
         <v>277396</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>248820</v>
+        <v>246860</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>309266</v>
+        <v>308142</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1740304105573159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1561025860545461</v>
+        <v>0.1548730386636606</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1940242368110828</v>
+        <v>0.193319569588376</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>345839</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>315551</v>
+        <v>318642</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>373779</v>
+        <v>374000</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4202706202700678</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3834647301559316</v>
+        <v>0.3872207243569424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4542246495265777</v>
+        <v>0.4544933105607465</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>268</v>
@@ -6546,19 +6546,19 @@
         <v>280580</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>256005</v>
+        <v>253246</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>309590</v>
+        <v>305319</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3638887138716738</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3320176987698327</v>
+        <v>0.3284386952578637</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4015121973729844</v>
+        <v>0.3959731740582978</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>596</v>
@@ -6567,19 +6567,19 @@
         <v>626418</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>587653</v>
+        <v>589295</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>668230</v>
+        <v>665840</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3929964464388831</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3686765758281859</v>
+        <v>0.3697065316152912</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4192284483202282</v>
+        <v>0.4177288319889556</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>243621</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>216757</v>
+        <v>216800</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>270402</v>
+        <v>271814</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2960541660831713</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2634083266728053</v>
+        <v>0.2634599626678205</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3285984842482923</v>
+        <v>0.3303148644089132</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>184</v>
@@ -6617,19 +6617,19 @@
         <v>195605</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>171970</v>
+        <v>170744</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>220704</v>
+        <v>220183</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2536830626063371</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2230306872699994</v>
+        <v>0.2214413149093593</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2862351477444943</v>
+        <v>0.285559625276896</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>422</v>
@@ -6638,19 +6638,19 @@
         <v>439226</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>401577</v>
+        <v>401637</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>475168</v>
+        <v>471403</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2755575756791404</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2519379014406806</v>
+        <v>0.2519756870965879</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2981069310506814</v>
+        <v>0.2957444604859621</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>83591</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>66861</v>
+        <v>67331</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102196</v>
+        <v>103947</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1015814453595863</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08125108358164031</v>
+        <v>0.08182211256168484</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1241913510111737</v>
+        <v>0.1263191011520691</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -6688,19 +6688,19 @@
         <v>53746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40668</v>
+        <v>40011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70151</v>
+        <v>70154</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06970396638923258</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05274322255744222</v>
+        <v>0.05189120730535674</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09098054543085246</v>
+        <v>0.09098351652562725</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>130</v>
@@ -6709,19 +6709,19 @@
         <v>137337</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>116730</v>
+        <v>115281</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>160634</v>
+        <v>161553</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08616103909318645</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0732333379593386</v>
+        <v>0.0723242242171336</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1007773023962797</v>
+        <v>0.1013536593998258</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>45291</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33297</v>
+        <v>32605</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59928</v>
+        <v>60379</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09016548333851176</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06628735736992106</v>
+        <v>0.06491025656251451</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1193051947637947</v>
+        <v>0.1202032251427773</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -6834,19 +6834,19 @@
         <v>65711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51608</v>
+        <v>51831</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82469</v>
+        <v>81953</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1347338812235171</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1058182522839318</v>
+        <v>0.1062753214495586</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1690961400036979</v>
+        <v>0.1680379320746576</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>102</v>
@@ -6855,19 +6855,19 @@
         <v>111001</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91512</v>
+        <v>91891</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132642</v>
+        <v>131745</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1121209719249678</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09243520889133086</v>
+        <v>0.09281728888779826</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1339798764150401</v>
+        <v>0.1330742051743427</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>82466</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>64094</v>
+        <v>66989</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>99783</v>
+        <v>101043</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1641733987913437</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1275985286436299</v>
+        <v>0.1333619001931892</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1986483853192437</v>
+        <v>0.2011573190814906</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>109</v>
@@ -6905,19 +6905,19 @@
         <v>122637</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>102177</v>
+        <v>102533</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>144457</v>
+        <v>143339</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2514562029993676</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2095051559764211</v>
+        <v>0.2102351637314333</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2961963949723198</v>
+        <v>0.2939041407875749</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>187</v>
@@ -6926,19 +6926,19 @@
         <v>205102</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>178729</v>
+        <v>178364</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>230318</v>
+        <v>232448</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2071710541373503</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1805320220016603</v>
+        <v>0.1801624940709495</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2326410229081917</v>
+        <v>0.234792324896236</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>180600</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>158042</v>
+        <v>158076</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>202690</v>
+        <v>204414</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3595387744960097</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3146301840847401</v>
+        <v>0.3146991694231581</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4035159843785557</v>
+        <v>0.4069496985942478</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>162</v>
@@ -6976,19 +6976,19 @@
         <v>171265</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>148447</v>
+        <v>152168</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>189748</v>
+        <v>195354</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3511644011689888</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3043787515103031</v>
+        <v>0.3120076668052715</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3890624823485792</v>
+        <v>0.4005578197377692</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>332</v>
@@ -6997,19 +6997,19 @@
         <v>351865</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>321699</v>
+        <v>319703</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>382749</v>
+        <v>383580</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3554133522972012</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3249433131290519</v>
+        <v>0.3229270979380792</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3866089339134759</v>
+        <v>0.3874487686181919</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>134658</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>115557</v>
+        <v>113378</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>155843</v>
+        <v>153395</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2680772053053903</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2300511040211136</v>
+        <v>0.2257141263283364</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3102526363127825</v>
+        <v>0.3053807441691372</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -7047,19 +7047,19 @@
         <v>81842</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65516</v>
+        <v>65772</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>99555</v>
+        <v>99485</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1678097176842911</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1343354941607364</v>
+        <v>0.1348591159640286</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2041287949285616</v>
+        <v>0.2039851588050797</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>200</v>
@@ -7068,19 +7068,19 @@
         <v>216499</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>188384</v>
+        <v>190714</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>242508</v>
+        <v>242246</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2186829756600317</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1902838205932941</v>
+        <v>0.192637334384101</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2449535760638501</v>
+        <v>0.2446891300159772</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>59295</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44435</v>
+        <v>46146</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75777</v>
+        <v>76622</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1180451380687446</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0884615386011999</v>
+        <v>0.09186809109072382</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1508580511544048</v>
+        <v>0.1525403812402246</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -7118,19 +7118,19 @@
         <v>46252</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34544</v>
+        <v>35210</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60580</v>
+        <v>61860</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09483579692383537</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07082972869271451</v>
+        <v>0.0721946211384748</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.124213338865995</v>
+        <v>0.1268394085824424</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>99</v>
@@ -7139,19 +7139,19 @@
         <v>105547</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>88593</v>
+        <v>83702</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>127482</v>
+        <v>126303</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.106611645980449</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08948623360714619</v>
+        <v>0.08454574211900591</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1287681545747103</v>
+        <v>0.1275770187091488</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>215713</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>183037</v>
+        <v>189047</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>245039</v>
+        <v>248334</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06427836769767986</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05454163292657496</v>
+        <v>0.05633235858109652</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07301700838825581</v>
+        <v>0.07399873904080405</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>297</v>
@@ -7264,19 +7264,19 @@
         <v>323136</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>289888</v>
+        <v>289944</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>357003</v>
+        <v>360597</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09189792821333151</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0824424263535295</v>
+        <v>0.08245850202343241</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1015295470099836</v>
+        <v>0.1025517646279689</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>496</v>
@@ -7285,19 +7285,19 @@
         <v>538849</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>491024</v>
+        <v>498333</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>585641</v>
+        <v>582100</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07841033233474788</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07145108600535113</v>
+        <v>0.07251479313223484</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08521938331037844</v>
+        <v>0.08470402587921988</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>552055</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>506645</v>
+        <v>506474</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>595428</v>
+        <v>592448</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1645021298712132</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.150970770770933</v>
+        <v>0.1509197908280605</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1774262101683776</v>
+        <v>0.1765384740681777</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>733</v>
@@ -7335,19 +7335,19 @@
         <v>786838</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>735655</v>
+        <v>733096</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>835020</v>
+        <v>836001</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.223772284610424</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2092159100174367</v>
+        <v>0.2084883458649383</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2374748900361721</v>
+        <v>0.2377538295525205</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1267</v>
@@ -7356,19 +7356,19 @@
         <v>1338894</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1275249</v>
+        <v>1277430</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1409781</v>
+        <v>1410368</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1948285983294429</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1855673190565757</v>
+        <v>0.1858846454572382</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2051437565787891</v>
+        <v>0.2052291022420214</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>1296577</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1241288</v>
+        <v>1236909</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1355263</v>
+        <v>1358429</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3863554828828299</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3698803774192381</v>
+        <v>0.3685756006837069</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4038428012575687</v>
+        <v>0.4047863315535252</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1264</v>
@@ -7406,19 +7406,19 @@
         <v>1333036</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1276320</v>
+        <v>1276863</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1396841</v>
+        <v>1389669</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3791076355021648</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3629780447300066</v>
+        <v>0.3631323958162289</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3972535229380547</v>
+        <v>0.3952137460300829</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2495</v>
@@ -7427,19 +7427,19 @@
         <v>2629613</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2544804</v>
+        <v>2547607</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2707402</v>
+        <v>2713840</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3826470124739549</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3703060730250928</v>
+        <v>0.3707139230400955</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3939665085130098</v>
+        <v>0.3949032975173196</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>912456</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>863551</v>
+        <v>863361</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>963900</v>
+        <v>966288</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2718948246458293</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2573220400159599</v>
+        <v>0.2572651553470562</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.287223982664533</v>
+        <v>0.2879355648877746</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>765</v>
@@ -7477,19 +7477,19 @@
         <v>811508</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>762287</v>
+        <v>757478</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>861919</v>
+        <v>858964</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2307881462795738</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.216790087727344</v>
+        <v>0.2154224464742866</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2451247934202872</v>
+        <v>0.2442845244974919</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1638</v>
@@ -7498,19 +7498,19 @@
         <v>1723964</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1658088</v>
+        <v>1647067</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1799188</v>
+        <v>1798132</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2508619727765878</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2412759638581888</v>
+        <v>0.2396722521106073</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2618081084357317</v>
+        <v>0.2616544523461165</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>379115</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>344301</v>
+        <v>343844</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>416785</v>
+        <v>421064</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1129691949024477</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1025950801264034</v>
+        <v>0.1024590306861806</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.124193992064275</v>
+        <v>0.1254692775074141</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>254</v>
@@ -7548,19 +7548,19 @@
         <v>261728</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>232414</v>
+        <v>230450</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>295530</v>
+        <v>294484</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07443400539450593</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06609715775252172</v>
+        <v>0.06553863840052894</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08404711328966442</v>
+        <v>0.0837496203947507</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>611</v>
@@ -7569,19 +7569,19 @@
         <v>640844</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>590599</v>
+        <v>597178</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>690712</v>
+        <v>691100</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09325208408526645</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08594084503077917</v>
+        <v>0.08689816386095302</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1005087146731122</v>
+        <v>0.1005651403917237</v>
       </c>
     </row>
     <row r="33">
